--- a/Data/Paper/GunshotTPRresults.xlsx
+++ b/Data/Paper/GunshotTPRresults.xlsx
@@ -3,24 +3,30 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D214610-5916-47D7-8DC9-2A1EEEC9B112}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E347164-AE44-44DF-BDEB-A51C6608E1BF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1028" yWindow="1028" windowWidth="21600" windowHeight="11475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-6360" yWindow="1163" windowWidth="21600" windowHeight="11475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="50">
   <si>
     <t>Mooring</t>
   </si>
@@ -40,59 +46,159 @@
     <t>TotalFPR</t>
   </si>
   <si>
-    <t>all</t>
-  </si>
-  <si>
-    <t>AW15_AU_BS2_files_33-103</t>
-  </si>
-  <si>
-    <t>AW12_AU_BS3_files_1-250</t>
-  </si>
-  <si>
-    <t>BS14_AU_04_files_74-148</t>
-  </si>
-  <si>
-    <t>AW14_AU_BS3_files_309-369</t>
-  </si>
-  <si>
-    <t>AW15_AU_BS3_files_705-749</t>
-  </si>
-  <si>
-    <t>AW14_AU_BS3_files_1-71</t>
-  </si>
-  <si>
-    <t>BS12_AU_02a_files_1-46</t>
-  </si>
-  <si>
-    <t>BS12_AU_02b_files_689-747</t>
-  </si>
-  <si>
-    <t>AL16_AU_BS3_files_77-170</t>
-  </si>
-  <si>
-    <t>AW12_AU_BS3_files_1464-1507</t>
-  </si>
-  <si>
-    <t>BS13_AU_04_files_137-224</t>
-  </si>
-  <si>
     <t>AUC score</t>
   </si>
   <si>
     <t>x</t>
   </si>
   <si>
-    <t>?</t>
+    <t>rf AW15_AU_BS2_files_33-103</t>
+  </si>
+  <si>
+    <t>rf AW12_AU_BS3_files_1-250</t>
+  </si>
+  <si>
+    <t>rf BS14_AU_04_files_74-148</t>
+  </si>
+  <si>
+    <t>rf AW14_AU_BS3_files_309-369</t>
+  </si>
+  <si>
+    <t>rf AW15_AU_BS3_files_705-749</t>
+  </si>
+  <si>
+    <t>rf AW14_AU_BS3_files_1-71</t>
+  </si>
+  <si>
+    <t>rf BS12_AU_02a_files_1-46</t>
+  </si>
+  <si>
+    <t>rf BS12_AU_02b_files_689-747</t>
+  </si>
+  <si>
+    <t>rf AL16_AU_BS3_files_77-170</t>
+  </si>
+  <si>
+    <t>rf AW12_AU_BS3_files_1464-1507</t>
+  </si>
+  <si>
+    <t>rf BS13_AU_04_files_137-224</t>
+  </si>
+  <si>
+    <t>true, no adaptive compare</t>
+  </si>
+  <si>
+    <t>difference of 3 and 1</t>
+  </si>
+  <si>
+    <t>raven stats, using tpTruth and Fn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">raven stats, using tpTruth and FP (ignore mutlibox detections for this stat) </t>
+  </si>
+  <si>
+    <t>Multibox rate</t>
+  </si>
+  <si>
+    <t>Overbox rate</t>
+  </si>
+  <si>
+    <t>no adaptive compare</t>
+  </si>
+  <si>
+    <t>using relative comparison (include multibox TPs) since stat is just on model performance</t>
+  </si>
+  <si>
+    <t>with adaptive compare</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hand GT all </t>
+  </si>
+  <si>
+    <t>assisted GT all</t>
+  </si>
+  <si>
+    <t>percentage of all TPs that are missed or over</t>
+  </si>
+  <si>
+    <t>All</t>
+  </si>
+  <si>
+    <t>using true</t>
+  </si>
+  <si>
+    <t>&lt;0.88</t>
+  </si>
+  <si>
+    <t>&lt;0.96</t>
+  </si>
+  <si>
+    <t>&lt;0.89</t>
+  </si>
+  <si>
+    <t>&lt;0.90</t>
+  </si>
+  <si>
+    <t>&lt;0.94</t>
+  </si>
+  <si>
+    <t>&lt;0.97</t>
+  </si>
+  <si>
+    <t>&lt;0.91</t>
+  </si>
+  <si>
+    <t>&lt;0.99</t>
+  </si>
+  <si>
+    <t>&lt;0.95</t>
+  </si>
+  <si>
+    <t>&lt;0.93</t>
+  </si>
+  <si>
+    <t>Explaination: accuracy stats from raven. Most data segments were machine assisted so there is an unknown extra # of FNs. Same calculation with or without A_C since comes before</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Explaination: Performance of the model to total TPR. For the machine assisted data, compares the # of GT TPs after model (and A_C for lower table) to # of FNs, and uses this metric to suggest the upper bound for TPR for these data. For hand GT data, calculates this as a factor such that ModelTPR equals total TPR / RavenTPR (the same metric for the hand GT data is interpreted as total TPR given that it includes all the FPs). </t>
+  </si>
+  <si>
+    <t>Explaination: Raven FPR is calculated as proportion of kept autodetections that are false positives pre model</t>
+  </si>
+  <si>
+    <t>Explaination: Total FPR is calculated as proportion of kept autodetections that are false positives after model (and A_C)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Explanation: % of total TPs that are redundant </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Explanation: % of total TPs that encompass more than 1 GT box </t>
+  </si>
+  <si>
+    <t>Explaination: AUC scores compare liklihood of correctly classifying TPs or FPs</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF222222"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -118,9 +224,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -401,19 +509,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:K37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="I38" sqref="I38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="29.9296875" customWidth="1"/>
+    <col min="2" max="2" width="9.06640625" style="1"/>
+    <col min="4" max="4" width="11.73046875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
@@ -429,283 +542,935 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0.96671289900000001</v>
+      </c>
+      <c r="C2" s="1">
+        <f>D2/B2</f>
+        <v>0.96908602126762355</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0.93682795699999999</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0.67445119099999995</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0.34920634900000003</v>
+      </c>
+      <c r="G2" s="2">
+        <v>6.6666666670000003</v>
+      </c>
+      <c r="H2" s="2">
+        <v>0.43478260899999999</v>
+      </c>
+      <c r="I2" s="1">
+        <v>0.94814397399999994</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0.93830570899999999</v>
+      </c>
+      <c r="C3" s="1">
+        <f>D3/B3</f>
+        <v>0.97574124000134377</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0.91554357600000003</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0.675063776</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0.34637588200000002</v>
+      </c>
+      <c r="G3" s="2">
+        <v>10.60311284</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0.48638132299999998</v>
+      </c>
+      <c r="I3" s="1">
+        <v>0.93747285400000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0.95704057300000001</v>
+      </c>
+      <c r="C4" s="1">
+        <f>D4/B4</f>
+        <v>0.99289099522847502</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.95023696700000004</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0.408554572</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0.25602968500000001</v>
+      </c>
+      <c r="G4" s="2">
+        <v>19.32059448</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0</v>
+      </c>
+      <c r="I4" s="1">
+        <v>0.90822524800000004</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="1" t="s">
+      <c r="B5" s="1">
+        <v>0.94254446000000003</v>
+      </c>
+      <c r="C5" s="1">
+        <f t="shared" ref="C5:C6" si="0">D5/B5</f>
+        <v>0.95430809385904192</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.89947780700000002</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0.80531223500000004</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0.53851306099999996</v>
+      </c>
+      <c r="G5" s="2">
+        <v>19.14323963</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0.93708166000000004</v>
+      </c>
+      <c r="I5" s="1">
+        <v>0.92651328600000005</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0.94893473114000004</v>
+      </c>
+      <c r="C6" s="1">
+        <f t="shared" si="0"/>
+        <v>0.97110016421019485</v>
+      </c>
+      <c r="D6" s="3">
+        <f>(697+1019+401+689)/((697+1019+401+689)+(47+94+21+77))</f>
+        <v>0.92151067323481117</v>
+      </c>
+      <c r="E6" s="1">
+        <f>(1444+2117+277+2850)/((697+1019+401+689)+(1444+2117+277+2850))</f>
+        <v>0.70444491257636399</v>
+      </c>
+      <c r="F6" s="1">
+        <f>(374+550+138+804)/((697+1019+401+689)+(374+550+138+804))</f>
+        <v>0.39940068493150682</v>
+      </c>
+      <c r="G6" s="1">
+        <f>(690*0.0667+1028*0.106+471*0.1932+747*0.1914)/(690+1028+471+747)*100</f>
+        <v>13.24809264305177</v>
+      </c>
+      <c r="H6" s="1">
+        <f>(690*0.0043+1028*0.0049+471*0+747*0.0094)/(690+1028+471+747)*100</f>
+        <v>0.51178474114441419</v>
+      </c>
+      <c r="I6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0.88930581600000003</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0.85553184999999998</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0.42684401500000002</v>
+      </c>
+      <c r="G7" s="2">
+        <v>0</v>
+      </c>
+      <c r="H7" s="2">
+        <v>0</v>
+      </c>
+      <c r="I7" s="1">
+        <v>0.94847640799999999</v>
+      </c>
+      <c r="K7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0.96994095499999999</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0.67505844299999995</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0.41784793799999997</v>
+      </c>
+      <c r="G8" s="2">
+        <v>0</v>
+      </c>
+      <c r="H8" s="2">
+        <v>0</v>
+      </c>
+      <c r="I8" s="1">
+        <v>0.95203552599999997</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0.89686098700000005</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0.79079497899999995</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0.46808510599999997</v>
+      </c>
+      <c r="G9" s="2">
+        <v>0</v>
+      </c>
+      <c r="H9" s="2">
+        <v>0</v>
+      </c>
+      <c r="I9" s="1">
+        <v>0.92092453699999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0.90886075899999996</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0.785287081</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0.25208333300000002</v>
+      </c>
+      <c r="G10" s="2">
+        <v>0</v>
+      </c>
+      <c r="H10" s="2">
+        <v>0</v>
+      </c>
+      <c r="I10" s="1">
+        <v>0.968428819</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0.96235955100000004</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0.39341359799999998</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0.23287057799999999</v>
+      </c>
+      <c r="G11" s="2">
+        <v>6.0827250999999999E-2</v>
+      </c>
+      <c r="H11" s="2">
+        <v>6.0827250999999999E-2</v>
+      </c>
+      <c r="I11" s="1">
+        <v>0.91793083900000005</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0.91271820400000003</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0.838624339</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0.46176470600000002</v>
+      </c>
+      <c r="G12" s="2">
+        <v>0</v>
+      </c>
+      <c r="H12" s="2">
+        <v>0</v>
+      </c>
+      <c r="I12" s="1">
+        <v>0.95303437700000004</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0.98566878999999996</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0.45026643</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0.26045400200000002</v>
+      </c>
+      <c r="G13" s="2">
+        <v>0.16393442599999999</v>
+      </c>
+      <c r="H13" s="2">
+        <v>0.16393442599999999</v>
+      </c>
+      <c r="I13" s="1">
+        <v>0.941747573</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="1">
+        <f>(474+1807+400+718+1713+366+619)/((474+1807+400+718+1713+366+619)+(59+56+46+72+67+35+9))</f>
+        <v>0.94659214407700665</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E14" s="1">
+        <f>(2807+3754+1512+2626+1111+1902+507)/((474+1807+400+718+1713+366+619)+(2807+3754+1512+2626+1111+1902+507))</f>
+        <v>0.69989171096672576</v>
+      </c>
+      <c r="F14" s="1">
+        <f>(353+1297+352+242+520+314+218)/((474+1807+400+718+1713+366+619)+(353+1297+352+242+520+314+218))</f>
+        <v>0.35089960608964121</v>
+      </c>
+      <c r="G14" s="1">
+        <f>(1644*0.0006+610*0.016)/(414+1749+352+645+1644+330+610)</f>
+        <v>1.8708913649025068E-3</v>
+      </c>
+      <c r="H14" s="1">
+        <f>(1644*0.0006+610*0.016)/(414+1749+352+645+1644+330+610)</f>
+        <v>1.8708913649025068E-3</v>
+      </c>
+      <c r="I14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" t="s">
+        <v>7</v>
+      </c>
+      <c r="F15" t="s">
+        <v>7</v>
+      </c>
+      <c r="G15" t="s">
+        <v>7</v>
+      </c>
+      <c r="H15" t="s">
+        <v>7</v>
+      </c>
+      <c r="I15" s="1">
+        <v>0.94823983899999997</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="B16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="1">
-        <v>0.87552742616033796</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" s="1">
-        <v>0.85553185004571797</v>
-      </c>
-      <c r="F2" s="1">
-        <v>0.46243523316062202</v>
-      </c>
-      <c r="G2" s="1">
-        <v>0.94799559188724802</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
+      <c r="E16" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F16" t="s">
+        <v>32</v>
+      </c>
+      <c r="G16" t="s">
+        <v>30</v>
+      </c>
+      <c r="I16" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D18" t="s">
+        <v>3</v>
+      </c>
+      <c r="E18" t="s">
+        <v>4</v>
+      </c>
+      <c r="F18" t="s">
+        <v>5</v>
+      </c>
+      <c r="G18" t="s">
+        <v>23</v>
+      </c>
+      <c r="H18" t="s">
+        <v>24</v>
+      </c>
+      <c r="I18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
+        <v>12</v>
+      </c>
+      <c r="B19" s="1">
+        <v>0.96671289900000001</v>
+      </c>
+      <c r="C19" s="1">
+        <f>D19/B19</f>
+        <v>0.97039030930664338</v>
+      </c>
+      <c r="D19" s="1">
+        <v>0.93808882907133195</v>
+      </c>
+      <c r="E19" s="1">
+        <v>0.67445119099999995</v>
+      </c>
+      <c r="F19" s="1">
+        <v>0.343072573044298</v>
+      </c>
+      <c r="G19" s="1">
+        <v>1.2195121951219501</v>
+      </c>
+      <c r="H19" s="1">
+        <v>0.457317073170732</v>
+      </c>
+      <c r="I19" s="1">
+        <v>0.95048081100000004</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A20" t="s">
+        <v>13</v>
+      </c>
+      <c r="B20" s="1">
+        <v>0.93830570899999999</v>
+      </c>
+      <c r="C20" s="1">
+        <f>D20/B20</f>
+        <v>0.97749774979991833</v>
+      </c>
+      <c r="D20" s="1">
+        <v>0.917191719171917</v>
+      </c>
+      <c r="E20" s="1">
+        <v>0.675063776</v>
+      </c>
+      <c r="F20" s="1">
+        <v>0.34258064516129</v>
+      </c>
+      <c r="G20" s="1">
+        <v>4.5595854922279804</v>
+      </c>
+      <c r="H20" s="1">
+        <v>0.62176165803108796</v>
+      </c>
+      <c r="I20" s="1">
+        <v>0.93951698800000005</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A21" t="s">
+        <v>14</v>
+      </c>
+      <c r="B21" s="1">
+        <v>0.95704057300000001</v>
+      </c>
+      <c r="C21" s="1">
+        <f>D21/B21</f>
+        <v>0.99289099504524869</v>
+      </c>
+      <c r="D21" s="1">
+        <v>0.95023696682464498</v>
+      </c>
+      <c r="E21" s="1">
+        <v>0.408554572</v>
+      </c>
+      <c r="F21" s="1">
+        <v>0.24339622641509401</v>
+      </c>
+      <c r="G21" s="1">
+        <v>5</v>
+      </c>
+      <c r="H21" s="1">
+        <v>0</v>
+      </c>
+      <c r="I21" s="1">
+        <v>0.92040997000000002</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A22" t="s">
+        <v>18</v>
+      </c>
+      <c r="B22" s="1">
+        <v>0.94254446000000003</v>
+      </c>
+      <c r="C22" s="1">
+        <f>D22/B22</f>
+        <v>0.95430809363466196</v>
+      </c>
+      <c r="D22" s="1">
+        <v>0.89947780678851197</v>
+      </c>
+      <c r="E22" s="1">
+        <v>0.80531223500000004</v>
+      </c>
+      <c r="F22" s="1">
+        <v>0.52969283276450496</v>
+      </c>
+      <c r="G22" s="1">
+        <v>11.5497076023392</v>
+      </c>
+      <c r="H22" s="1">
+        <v>1.0233918128655</v>
+      </c>
+      <c r="I22" s="1">
+        <v>0.92808936099999995</v>
+      </c>
+      <c r="K22" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A23" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23" s="1">
+        <v>0.94893473114000004</v>
+      </c>
+      <c r="C23" s="1">
+        <f t="shared" ref="C23" si="1">D23/B23</f>
+        <v>0.97205785667983013</v>
+      </c>
+      <c r="D23" s="3">
+        <f>(697+1019+401+689)/((697+1019+401+689)+(46+92+21+77))</f>
+        <v>0.92241946088099935</v>
+      </c>
+      <c r="E23" s="1">
+        <f>(1444+2117+277+2850)/((697+1019+401+689)+(1444+2117+277+2850))</f>
+        <v>0.70444491257636399</v>
+      </c>
+      <c r="F23" s="1">
+        <f>(364+531+129+776)/((697+1019+401+689)+(364+531+129+776))</f>
+        <v>0.39079461571862789</v>
+      </c>
+      <c r="G23" s="1">
+        <f>(656*0.012+965*0.0456+400*0.05+684*0.1155)/(656+965+400+684)*100</f>
+        <v>5.5777449168207029</v>
+      </c>
+      <c r="H23" s="1">
+        <f>(656*0.0046+965*0.0062+400*0+684*0.0102)/(656+965+400+684)*100</f>
+        <v>0.59066173752310536</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A24" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" s="1">
-        <v>0.96843853820598003</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" s="1">
-        <v>0.675179856115108</v>
-      </c>
-      <c r="F3" s="1">
-        <v>0.42523825172527102</v>
-      </c>
-      <c r="G3" s="1">
-        <v>0.95206136324202895</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
+      <c r="B24" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" s="1">
+        <v>0.88104089219330906</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E24" s="1">
+        <v>0.85553184999999998</v>
+      </c>
+      <c r="F24" s="1">
+        <v>0.41191066997518599</v>
+      </c>
+      <c r="G24" s="1">
+        <v>0</v>
+      </c>
+      <c r="H24" s="1">
+        <v>0.49019607843137297</v>
+      </c>
+      <c r="I24" s="1">
+        <v>0.94862529299999998</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A25" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="1">
-        <v>0.88249999999999995</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" s="1">
-        <v>0.79079497907949803</v>
-      </c>
-      <c r="F4" s="1">
-        <v>0.49715099715099698</v>
-      </c>
-      <c r="G4" s="1">
-        <v>0.92063379700090697</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
+      <c r="B25" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" s="1">
+        <v>0.956590788777131</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E25" s="1">
+        <v>0.67505844299999995</v>
+      </c>
+      <c r="F25" s="1">
+        <v>0.41197526846729599</v>
+      </c>
+      <c r="G25" s="1">
+        <v>0</v>
+      </c>
+      <c r="H25" s="1">
+        <v>1.8299881936245599</v>
+      </c>
+      <c r="I25" s="1">
+        <v>0.95371872700000004</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A26" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="1">
-        <v>0.89693593314763198</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" s="1">
-        <v>0.78528708133971303</v>
-      </c>
-      <c r="F5" s="1">
-        <v>0.27149321266968302</v>
-      </c>
-      <c r="G5" s="1">
-        <v>0.96832670387715603</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
+      <c r="B26" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" s="1">
+        <v>0.88495575221238898</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E26" s="1">
+        <v>0.79079497899999995</v>
+      </c>
+      <c r="F26" s="1">
+        <v>0.462365591397849</v>
+      </c>
+      <c r="G26" s="1">
+        <v>0</v>
+      </c>
+      <c r="H26" s="1">
+        <v>2.3529411764705901</v>
+      </c>
+      <c r="I26" s="1">
+        <v>0.92340230300000004</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A27" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="1">
-        <v>0.96795727636849105</v>
-      </c>
-      <c r="C6" s="1">
-        <v>0.95724137931034503</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" s="1">
-        <v>0.66574458275703097</v>
-      </c>
-      <c r="F6" s="1">
-        <v>0.34835680751173698</v>
-      </c>
-      <c r="G6" s="1">
-        <v>0.94829312742794203</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="1">
-        <v>0.94107299912049203</v>
-      </c>
-      <c r="C7" s="1">
-        <v>0.96261682242990698</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" s="1">
-        <v>0.66426106055851897</v>
-      </c>
-      <c r="F7" s="1">
-        <v>0.34269304403318401</v>
-      </c>
-      <c r="G7" s="1">
-        <v>0.93749020948149897</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="1">
-        <v>0.96392785571142303</v>
-      </c>
-      <c r="C8" s="1">
-        <v>0.98128898128898101</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8" s="1">
-        <v>0.36543535620052803</v>
-      </c>
-      <c r="F8" s="1">
-        <v>0.226229508196721</v>
-      </c>
-      <c r="G8" s="1">
-        <v>0.90610577403030401</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="1">
-        <v>0.96088733216579103</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E9" s="1">
-        <v>0.39341359773371098</v>
-      </c>
-      <c r="F9" s="1">
-        <v>0.23866790009250699</v>
-      </c>
-      <c r="G9" s="1">
-        <v>0.917629021555327</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A10" t="s">
+      <c r="B27" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" s="1">
+        <v>0.89749999999999996</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E27" s="1">
+        <v>0.785287081</v>
+      </c>
+      <c r="F27" s="1">
+        <v>0.24261603375527399</v>
+      </c>
+      <c r="G27" s="1">
+        <v>0</v>
+      </c>
+      <c r="H27" s="1">
+        <v>1.4354066985645899</v>
+      </c>
+      <c r="I27" s="1">
+        <v>0.96882319699999997</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A28" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="1">
-        <v>0.90710382513661203</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10" s="1">
-        <v>0.83862433862433905</v>
-      </c>
-      <c r="F10" s="1">
-        <v>0.48125000000000001</v>
-      </c>
-      <c r="G10" s="1">
-        <v>0.95282476074825995</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A11" t="s">
+      <c r="B28" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28" s="1">
+        <v>0.93760262725779997</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E28" s="1">
+        <v>0.39341359799999998</v>
+      </c>
+      <c r="F28" s="1">
+        <v>0.224886877828054</v>
+      </c>
+      <c r="G28" s="1">
+        <v>0</v>
+      </c>
+      <c r="H28" s="1">
+        <v>8.7015635622025798</v>
+      </c>
+      <c r="I28" s="1">
+        <v>0.92122148500000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A29" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="1">
-        <v>0.98546042003231005</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E11" s="1">
-        <v>0.45026642984014198</v>
-      </c>
-      <c r="F11" s="1">
-        <v>0.26239419588875501</v>
-      </c>
-      <c r="G11" s="1">
-        <v>0.94206513343929399</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A12" t="s">
+      <c r="B29" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29" s="1">
+        <v>0.90147783251231495</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E29" s="1">
+        <v>0.838624339</v>
+      </c>
+      <c r="F29" s="1">
+        <v>0.452914798206278</v>
+      </c>
+      <c r="G29" s="1">
+        <v>0</v>
+      </c>
+      <c r="H29" s="1">
+        <v>1.875</v>
+      </c>
+      <c r="I29" s="1">
+        <v>0.95286986600000001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A30" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="1">
-        <v>0.95070422535211296</v>
-      </c>
-      <c r="C12" s="1">
-        <v>0.92592592592592604</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E12" s="1">
-        <v>0.77868852459016402</v>
-      </c>
-      <c r="F12" s="1">
-        <v>0.51361867704280195</v>
-      </c>
-      <c r="G12" s="1">
-        <v>0.92581978552906596</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A13" t="s">
-        <v>6</v>
-      </c>
-      <c r="B13" s="1">
-        <v>0.98382085074466896</v>
-      </c>
-      <c r="C13" s="1">
-        <v>0.94696144630799395</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E13" s="1">
-        <v>0.69483864535212203</v>
-      </c>
-      <c r="F13" s="1">
-        <v>0.370566092370059</v>
-      </c>
-      <c r="G13" s="1">
-        <v>0.94808952094352905</v>
+      <c r="B30" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C30" s="1">
+        <v>0.96870109546165895</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E30" s="1">
+        <v>0.45026643</v>
+      </c>
+      <c r="F30" s="1">
+        <v>0.25060532687651299</v>
+      </c>
+      <c r="G30" s="1">
+        <v>0</v>
+      </c>
+      <c r="H30" s="1">
+        <v>6.3943161634103003</v>
+      </c>
+      <c r="I30" s="1">
+        <v>0.94480705399999998</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A31" t="s">
+        <v>29</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C31" s="1">
+        <f>(474+1807+400+718+1713+366+619)/((64+82+52+82+114+40+20)+(474+1807+400+718+1713+366+619))</f>
+        <v>0.93069760341932528</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E31" s="1">
+        <f>(2807+3754+1512+2626+1111+1902+507)/((474+1807+400+718+1713+366+619)+(2807+3754+1512+2626+1111+1902+507))</f>
+        <v>0.69989171096672576</v>
+      </c>
+      <c r="F31" s="1">
+        <f>(332+1266+344+230+497+303+207)/((474+1807+400+718+1713+366+619)+(332+1266+344+230+497+303+207))</f>
+        <v>0.34271237602414834</v>
+      </c>
+      <c r="G31" s="1">
+        <v>0</v>
+      </c>
+      <c r="H31" s="1">
+        <f>(508*0.0049+1694*0.0183+340*0.0235+627*0.0144+1471*0.087+320*0.0188+563*0.0639)/(508+1694+340+627+1471+320+563)*100</f>
+        <v>3.9919771863117868</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A32" t="s">
+        <v>31</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C32" t="s">
+        <v>7</v>
+      </c>
+      <c r="D32" t="s">
+        <v>7</v>
+      </c>
+      <c r="E32" t="s">
+        <v>7</v>
+      </c>
+      <c r="F32" t="s">
+        <v>7</v>
+      </c>
+      <c r="G32" t="s">
+        <v>7</v>
+      </c>
+      <c r="H32" t="s">
+        <v>7</v>
+      </c>
+      <c r="I32" s="1">
+        <v>0.94933953800000004</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B37" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E37" t="s">
+        <v>45</v>
+      </c>
+      <c r="F37" t="s">
+        <v>46</v>
+      </c>
+      <c r="G37" t="s">
+        <v>47</v>
+      </c>
+      <c r="H37" t="s">
+        <v>48</v>
+      </c>
+      <c r="I37" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Paper/GunshotTPRresults.xlsx
+++ b/Data/Paper/GunshotTPRresults.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E347164-AE44-44DF-BDEB-A51C6608E1BF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B691EB46-829E-47D3-9351-D37CFCBE2122}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-6360" yWindow="1163" windowWidth="21600" windowHeight="11475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13102" yWindow="1695" windowWidth="14686" windowHeight="11475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="70">
   <si>
     <t>Mooring</t>
   </si>
@@ -176,6 +176,66 @@
   </si>
   <si>
     <t>Explaination: AUC scores compare liklihood of correctly classifying TPs or FPs</t>
+  </si>
+  <si>
+    <t>runs for results: Full run relative with adaptive compare_20190422191447, Full run relative with adaptive compare_20190422180632, Full run relative with no adaptive compare_20190422192405,Full run true with no adaptive compare_20190422195919,Full run true with adaptive compare_20190422211623</t>
+  </si>
+  <si>
+    <t>AW15_AU_BS3</t>
+  </si>
+  <si>
+    <t>AW12_AU_BS3 1</t>
+  </si>
+  <si>
+    <t>AW12_AU_BS3 2</t>
+  </si>
+  <si>
+    <t>AW14_AU_BS3</t>
+  </si>
+  <si>
+    <t>BS12_AU_02a</t>
+  </si>
+  <si>
+    <t>BS13_AU_04</t>
+  </si>
+  <si>
+    <t>Data segment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hand boxed DS all </t>
+  </si>
+  <si>
+    <t>AW15_AU_BS2</t>
+  </si>
+  <si>
+    <t>BS14_AU_04</t>
+  </si>
+  <si>
+    <t>BS12_AU_02b</t>
+  </si>
+  <si>
+    <t>AL16_AU_BS3</t>
+  </si>
+  <si>
+    <t>Machine assisted GS all</t>
+  </si>
+  <si>
+    <t>MB %</t>
+  </si>
+  <si>
+    <t>Model TPR</t>
+  </si>
+  <si>
+    <t>Raven TPR</t>
+  </si>
+  <si>
+    <t>Total FPR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUC </t>
+  </si>
+  <si>
+    <t>OB %</t>
   </si>
 </sst>
 </file>
@@ -204,12 +264,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -224,11 +296,31 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -509,473 +601,493 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K37"/>
+  <dimension ref="A1:L39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I38" sqref="I38"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="29.9296875" customWidth="1"/>
-    <col min="2" max="2" width="9.06640625" style="1"/>
-    <col min="4" max="4" width="11.73046875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.3984375" customWidth="1"/>
+    <col min="2" max="2" width="8.3984375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.46484375" customWidth="1"/>
+    <col min="4" max="4" width="7.46484375" customWidth="1"/>
+    <col min="6" max="6" width="8.1328125" customWidth="1"/>
+    <col min="7" max="7" width="6.73046875" customWidth="1"/>
+    <col min="8" max="8" width="5.9296875" customWidth="1"/>
+    <col min="9" max="9" width="5.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A1" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="1">
+      <c r="F1" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A2" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" s="5">
         <v>0.96671289900000001</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="5">
         <f>D2/B2</f>
         <v>0.96908602126762355</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="5">
         <v>0.93682795699999999</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="5">
         <v>0.67445119099999995</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F2" s="5">
         <v>0.34920634900000003</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G2" s="6">
         <v>6.6666666670000003</v>
       </c>
-      <c r="H2" s="2">
+      <c r="H2" s="6">
         <v>0.43478260899999999</v>
       </c>
-      <c r="I2" s="1">
+      <c r="I2" s="5">
         <v>0.94814397399999994</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="1">
+      <c r="L2" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A3" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" s="5">
         <v>0.93830570899999999</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="5">
         <f>D3/B3</f>
         <v>0.97574124000134377</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="5">
         <v>0.91554357600000003</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="5">
         <v>0.675063776</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3" s="5">
         <v>0.34637588200000002</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3" s="6">
         <v>10.60311284</v>
       </c>
-      <c r="H3" s="2">
+      <c r="H3" s="6">
         <v>0.48638132299999998</v>
       </c>
-      <c r="I3" s="1">
+      <c r="I3" s="5">
         <v>0.93747285400000002</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="1">
+      <c r="L3" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A4" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4" s="5">
         <v>0.95704057300000001</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="5">
         <f>D4/B4</f>
         <v>0.99289099522847502</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="5">
         <v>0.95023696700000004</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="5">
         <v>0.408554572</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4" s="5">
         <v>0.25602968500000001</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4" s="6">
         <v>19.32059448</v>
       </c>
-      <c r="H4" s="2">
-        <v>0</v>
-      </c>
-      <c r="I4" s="1">
+      <c r="H4" s="6">
+        <v>0</v>
+      </c>
+      <c r="I4" s="5">
         <v>0.90822524800000004</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="1">
+      <c r="L4" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A5" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5" s="5">
         <v>0.94254446000000003</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="5">
         <f t="shared" ref="C5:C6" si="0">D5/B5</f>
         <v>0.95430809385904192</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="5">
         <v>0.89947780700000002</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="5">
         <v>0.80531223500000004</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5" s="5">
         <v>0.53851306099999996</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5" s="6">
         <v>19.14323963</v>
       </c>
-      <c r="H5" s="2">
+      <c r="H5" s="6">
         <v>0.93708166000000004</v>
       </c>
-      <c r="I5" s="1">
+      <c r="I5" s="5">
         <v>0.92651328600000005</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B6" s="1">
+      <c r="L5" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A6" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B6" s="5">
         <v>0.94893473114000004</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="5">
         <f t="shared" si="0"/>
         <v>0.97110016421019485</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="7">
         <f>(697+1019+401+689)/((697+1019+401+689)+(47+94+21+77))</f>
         <v>0.92151067323481117</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="5">
         <f>(1444+2117+277+2850)/((697+1019+401+689)+(1444+2117+277+2850))</f>
         <v>0.70444491257636399</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6" s="5">
         <f>(374+550+138+804)/((697+1019+401+689)+(374+550+138+804))</f>
         <v>0.39940068493150682</v>
       </c>
-      <c r="G6" s="1">
+      <c r="G6" s="5">
         <f>(690*0.0667+1028*0.106+471*0.1932+747*0.1914)/(690+1028+471+747)*100</f>
         <v>13.24809264305177</v>
       </c>
-      <c r="H6" s="1">
+      <c r="H6" s="5">
         <f>(690*0.0043+1028*0.0049+471*0+747*0.0094)/(690+1028+471+747)*100</f>
         <v>0.51178474114441419</v>
       </c>
-      <c r="I6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="1">
+      <c r="I6" s="8"/>
+      <c r="L6" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A7" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="8"/>
+      <c r="C7" s="5">
         <v>0.88930581600000003</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="5">
         <v>0.85553184999999998</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7" s="5">
         <v>0.42684401500000002</v>
       </c>
-      <c r="G7" s="2">
-        <v>0</v>
-      </c>
-      <c r="H7" s="2">
-        <v>0</v>
-      </c>
-      <c r="I7" s="1">
+      <c r="G7" s="6">
+        <v>0</v>
+      </c>
+      <c r="H7" s="6">
+        <v>0</v>
+      </c>
+      <c r="I7" s="5">
         <v>0.94847640799999999</v>
       </c>
       <c r="K7" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A8" t="s">
+      <c r="L7" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A8" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B8" s="8"/>
+      <c r="C8" s="5">
+        <v>0.96994095499999999</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" s="5">
+        <v>0.67505844299999995</v>
+      </c>
+      <c r="F8" s="5">
+        <v>0.41784793799999997</v>
+      </c>
+      <c r="G8" s="6">
+        <v>0</v>
+      </c>
+      <c r="H8" s="6">
+        <v>0</v>
+      </c>
+      <c r="I8" s="5">
+        <v>0.95203552599999997</v>
+      </c>
+      <c r="L8" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="1">
-        <v>0.96994095499999999</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E8" s="1">
-        <v>0.67505844299999995</v>
-      </c>
-      <c r="F8" s="1">
-        <v>0.41784793799999997</v>
-      </c>
-      <c r="G8" s="2">
-        <v>0</v>
-      </c>
-      <c r="H8" s="2">
-        <v>0</v>
-      </c>
-      <c r="I8" s="1">
-        <v>0.95203552599999997</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A9" t="s">
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A9" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B9" s="8"/>
+      <c r="C9" s="5">
+        <v>0.89686098700000005</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" s="5">
+        <v>0.79079497899999995</v>
+      </c>
+      <c r="F9" s="5">
+        <v>0.46808510599999997</v>
+      </c>
+      <c r="G9" s="6">
+        <v>0</v>
+      </c>
+      <c r="H9" s="6">
+        <v>0</v>
+      </c>
+      <c r="I9" s="5">
+        <v>0.92092453699999999</v>
+      </c>
+      <c r="L9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="1">
-        <v>0.89686098700000005</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E9" s="1">
-        <v>0.79079497899999995</v>
-      </c>
-      <c r="F9" s="1">
-        <v>0.46808510599999997</v>
-      </c>
-      <c r="G9" s="2">
-        <v>0</v>
-      </c>
-      <c r="H9" s="2">
-        <v>0</v>
-      </c>
-      <c r="I9" s="1">
-        <v>0.92092453699999999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A10" t="s">
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A10" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B10" s="8"/>
+      <c r="C10" s="5">
+        <v>0.90886075899999996</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" s="5">
+        <v>0.785287081</v>
+      </c>
+      <c r="F10" s="5">
+        <v>0.25208333300000002</v>
+      </c>
+      <c r="G10" s="6">
+        <v>0</v>
+      </c>
+      <c r="H10" s="6">
+        <v>0</v>
+      </c>
+      <c r="I10" s="5">
+        <v>0.968428819</v>
+      </c>
+      <c r="L10" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="1">
-        <v>0.90886075899999996</v>
-      </c>
-      <c r="D10" s="1" t="s">
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A11" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B11" s="8"/>
+      <c r="C11" s="5">
+        <v>0.96235955100000004</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" s="5">
+        <v>0.39341359799999998</v>
+      </c>
+      <c r="F11" s="5">
+        <v>0.23287057799999999</v>
+      </c>
+      <c r="G11" s="6">
+        <v>6.0827250999999999E-2</v>
+      </c>
+      <c r="H11" s="6">
+        <v>6.0827250999999999E-2</v>
+      </c>
+      <c r="I11" s="5">
+        <v>0.91793083900000005</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A12" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B12" s="8"/>
+      <c r="C12" s="5">
+        <v>0.91271820400000003</v>
+      </c>
+      <c r="D12" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="E10" s="1">
-        <v>0.785287081</v>
-      </c>
-      <c r="F10" s="1">
-        <v>0.25208333300000002</v>
-      </c>
-      <c r="G10" s="2">
-        <v>0</v>
-      </c>
-      <c r="H10" s="2">
-        <v>0</v>
-      </c>
-      <c r="I10" s="1">
-        <v>0.968428819</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="1">
-        <v>0.96235955100000004</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E11" s="1">
-        <v>0.39341359799999998</v>
-      </c>
-      <c r="F11" s="1">
-        <v>0.23287057799999999</v>
-      </c>
-      <c r="G11" s="2">
-        <v>6.0827250999999999E-2</v>
-      </c>
-      <c r="H11" s="2">
-        <v>6.0827250999999999E-2</v>
-      </c>
-      <c r="I11" s="1">
-        <v>0.91793083900000005</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A12" t="s">
+      <c r="E12" s="5">
+        <v>0.838624339</v>
+      </c>
+      <c r="F12" s="5">
+        <v>0.46176470600000002</v>
+      </c>
+      <c r="G12" s="6">
+        <v>0</v>
+      </c>
+      <c r="H12" s="6">
+        <v>0</v>
+      </c>
+      <c r="I12" s="5">
+        <v>0.95303437700000004</v>
+      </c>
+      <c r="L12" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" s="1">
-        <v>0.91271820400000003</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E12" s="1">
-        <v>0.838624339</v>
-      </c>
-      <c r="F12" s="1">
-        <v>0.46176470600000002</v>
-      </c>
-      <c r="G12" s="2">
-        <v>0</v>
-      </c>
-      <c r="H12" s="2">
-        <v>0</v>
-      </c>
-      <c r="I12" s="1">
-        <v>0.95303437700000004</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A13" t="s">
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A13" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B13" s="8"/>
+      <c r="C13" s="5">
+        <v>0.98566878999999996</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E13" s="5">
+        <v>0.45026643</v>
+      </c>
+      <c r="F13" s="5">
+        <v>0.26045400200000002</v>
+      </c>
+      <c r="G13" s="6">
+        <v>0.16393442599999999</v>
+      </c>
+      <c r="H13" s="6">
+        <v>0.16393442599999999</v>
+      </c>
+      <c r="I13" s="5">
+        <v>0.941747573</v>
+      </c>
+      <c r="L13" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" s="1">
-        <v>0.98566878999999996</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E13" s="1">
-        <v>0.45026643</v>
-      </c>
-      <c r="F13" s="1">
-        <v>0.26045400200000002</v>
-      </c>
-      <c r="G13" s="2">
-        <v>0.16393442599999999</v>
-      </c>
-      <c r="H13" s="2">
-        <v>0.16393442599999999</v>
-      </c>
-      <c r="I13" s="1">
-        <v>0.941747573</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A14" t="s">
-        <v>29</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" s="1">
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A14" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B14" s="8"/>
+      <c r="C14" s="5">
         <f>(474+1807+400+718+1713+366+619)/((474+1807+400+718+1713+366+619)+(59+56+46+72+67+35+9))</f>
         <v>0.94659214407700665</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="E14" s="1">
+      <c r="E14" s="5">
         <f>(2807+3754+1512+2626+1111+1902+507)/((474+1807+400+718+1713+366+619)+(2807+3754+1512+2626+1111+1902+507))</f>
         <v>0.69989171096672576</v>
       </c>
-      <c r="F14" s="1">
+      <c r="F14" s="5">
         <f>(353+1297+352+242+520+314+218)/((474+1807+400+718+1713+366+619)+(353+1297+352+242+520+314+218))</f>
         <v>0.35089960608964121</v>
       </c>
-      <c r="G14" s="1">
+      <c r="G14" s="5">
         <f>(1644*0.0006+610*0.016)/(414+1749+352+645+1644+330+610)</f>
         <v>1.8708913649025068E-3</v>
       </c>
-      <c r="H14" s="1">
+      <c r="H14" s="5">
         <f>(1644*0.0006+610*0.016)/(414+1749+352+645+1644+330+610)</f>
         <v>1.8708913649025068E-3</v>
       </c>
-      <c r="I14" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A15" t="s">
+      <c r="I14" s="8"/>
+      <c r="L14" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A15" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" t="s">
-        <v>7</v>
-      </c>
-      <c r="D15" t="s">
-        <v>7</v>
-      </c>
-      <c r="E15" t="s">
-        <v>7</v>
-      </c>
-      <c r="F15" t="s">
-        <v>7</v>
-      </c>
-      <c r="G15" t="s">
-        <v>7</v>
-      </c>
-      <c r="H15" t="s">
-        <v>7</v>
-      </c>
-      <c r="I15" s="1">
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="9">
+        <v>0.7</v>
+      </c>
+      <c r="F15">
+        <v>0.37099225591662399</v>
+      </c>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="5">
         <v>0.94823983899999997</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="L15" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B16" s="1" t="s">
         <v>21</v>
       </c>
@@ -1161,7 +1273,7 @@
         <f t="shared" ref="C23" si="1">D23/B23</f>
         <v>0.97205785667983013</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="2">
         <f>(697+1019+401+689)/((697+1019+401+689)+(46+92+21+77))</f>
         <v>0.92241946088099935</v>
       </c>
@@ -1471,6 +1583,11 @@
       </c>
       <c r="I37" t="s">
         <v>49</v>
+      </c>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B39" s="1" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Paper/GunshotTPRresults.xlsx
+++ b/Data/Paper/GunshotTPRresults.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B691EB46-829E-47D3-9351-D37CFCBE2122}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60EC31EB-57CE-44EF-A9A3-B8830B8BE9DD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13102" yWindow="1695" windowWidth="14686" windowHeight="11475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="1433" windowWidth="13546" windowHeight="11579" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,29 +26,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="65">
   <si>
     <t>Mooring</t>
   </si>
   <si>
-    <t>RavenTPR</t>
-  </si>
-  <si>
-    <t>ModelTPR</t>
-  </si>
-  <si>
     <t>Total TPR</t>
   </si>
   <si>
     <t>Raven FPR</t>
   </si>
   <si>
-    <t>TotalFPR</t>
-  </si>
-  <si>
-    <t>AUC score</t>
-  </si>
-  <si>
     <t>x</t>
   </si>
   <si>
@@ -97,12 +85,6 @@
     <t xml:space="preserve">raven stats, using tpTruth and FP (ignore mutlibox detections for this stat) </t>
   </si>
   <si>
-    <t>Multibox rate</t>
-  </si>
-  <si>
-    <t>Overbox rate</t>
-  </si>
-  <si>
     <t>no adaptive compare</t>
   </si>
   <si>
@@ -223,9 +205,6 @@
     <t>MB %</t>
   </si>
   <si>
-    <t>Model TPR</t>
-  </si>
-  <si>
     <t>Raven TPR</t>
   </si>
   <si>
@@ -236,6 +215,12 @@
   </si>
   <si>
     <t>OB %</t>
+  </si>
+  <si>
+    <t>RF TPR</t>
+  </si>
+  <si>
+    <t>AUC</t>
   </si>
 </sst>
 </file>
@@ -603,8 +588,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24:D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -621,31 +606,31 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A1" s="4" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>65</v>
+        <v>59</v>
+      </c>
+      <c r="C1" t="s">
+        <v>63</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="L1" s="3" t="s">
         <v>0</v>
@@ -653,7 +638,7 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A2" s="4" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B2" s="5">
         <v>0.96671289900000001</v>
@@ -681,12 +666,12 @@
         <v>0.94814397399999994</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A3" s="4" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B3" s="5">
         <v>0.93830570899999999</v>
@@ -714,12 +699,12 @@
         <v>0.93747285400000002</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A4" s="4" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="B4" s="5">
         <v>0.95704057300000001</v>
@@ -747,12 +732,12 @@
         <v>0.90822524800000004</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A5" s="4" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="B5" s="5">
         <v>0.94254446000000003</v>
@@ -780,12 +765,12 @@
         <v>0.92651328600000005</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A6" s="4" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="B6" s="5">
         <v>0.94893473114000004</v>
@@ -816,19 +801,19 @@
       </c>
       <c r="I6" s="8"/>
       <c r="L6" s="3" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A7" s="4" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B7" s="8"/>
       <c r="C7" s="5">
         <v>0.88930581600000003</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E7" s="5">
         <v>0.85553184999999998</v>
@@ -836,32 +821,28 @@
       <c r="F7" s="5">
         <v>0.42684401500000002</v>
       </c>
-      <c r="G7" s="6">
-        <v>0</v>
-      </c>
-      <c r="H7" s="6">
-        <v>0</v>
-      </c>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
       <c r="I7" s="5">
         <v>0.94847640799999999</v>
       </c>
       <c r="K7" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A8" s="4" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B8" s="8"/>
       <c r="C8" s="5">
         <v>0.96994095499999999</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="E8" s="5">
         <v>0.67505844299999995</v>
@@ -869,29 +850,25 @@
       <c r="F8" s="5">
         <v>0.41784793799999997</v>
       </c>
-      <c r="G8" s="6">
-        <v>0</v>
-      </c>
-      <c r="H8" s="6">
-        <v>0</v>
-      </c>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
       <c r="I8" s="5">
         <v>0.95203552599999997</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A9" s="4" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="B9" s="8"/>
       <c r="C9" s="5">
         <v>0.89686098700000005</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="E9" s="5">
         <v>0.79079497899999995</v>
@@ -899,29 +876,25 @@
       <c r="F9" s="5">
         <v>0.46808510599999997</v>
       </c>
-      <c r="G9" s="6">
-        <v>0</v>
-      </c>
-      <c r="H9" s="6">
-        <v>0</v>
-      </c>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
       <c r="I9" s="5">
         <v>0.92092453699999999</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A10" s="4" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B10" s="8"/>
       <c r="C10" s="5">
         <v>0.90886075899999996</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="E10" s="5">
         <v>0.785287081</v>
@@ -929,29 +902,25 @@
       <c r="F10" s="5">
         <v>0.25208333300000002</v>
       </c>
-      <c r="G10" s="6">
-        <v>0</v>
-      </c>
-      <c r="H10" s="6">
-        <v>0</v>
-      </c>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
       <c r="I10" s="5">
         <v>0.968428819</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A11" s="4" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="B11" s="8"/>
       <c r="C11" s="5">
         <v>0.96235955100000004</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="E11" s="5">
         <v>0.39341359799999998</v>
@@ -959,29 +928,25 @@
       <c r="F11" s="5">
         <v>0.23287057799999999</v>
       </c>
-      <c r="G11" s="6">
-        <v>6.0827250999999999E-2</v>
-      </c>
-      <c r="H11" s="6">
-        <v>6.0827250999999999E-2</v>
-      </c>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
       <c r="I11" s="5">
         <v>0.91793083900000005</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A12" s="4" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B12" s="8"/>
       <c r="C12" s="5">
         <v>0.91271820400000003</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="E12" s="5">
         <v>0.838624339</v>
@@ -989,29 +954,25 @@
       <c r="F12" s="5">
         <v>0.46176470600000002</v>
       </c>
-      <c r="G12" s="6">
-        <v>0</v>
-      </c>
-      <c r="H12" s="6">
-        <v>0</v>
-      </c>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
       <c r="I12" s="5">
         <v>0.95303437700000004</v>
       </c>
       <c r="L12" s="3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A13" s="4" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B13" s="8"/>
       <c r="C13" s="5">
         <v>0.98566878999999996</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E13" s="5">
         <v>0.45026643</v>
@@ -1019,22 +980,18 @@
       <c r="F13" s="5">
         <v>0.26045400200000002</v>
       </c>
-      <c r="G13" s="6">
-        <v>0.16393442599999999</v>
-      </c>
-      <c r="H13" s="6">
-        <v>0.16393442599999999</v>
-      </c>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
       <c r="I13" s="5">
         <v>0.941747573</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A14" s="4" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="B14" s="8"/>
       <c r="C14" s="5">
@@ -1042,7 +999,7 @@
         <v>0.94659214407700665</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="E14" s="5">
         <f>(2807+3754+1512+2626+1111+1902+507)/((474+1807+400+718+1713+366+619)+(2807+3754+1512+2626+1111+1902+507))</f>
@@ -1052,22 +1009,16 @@
         <f>(353+1297+352+242+520+314+218)/((474+1807+400+718+1713+366+619)+(353+1297+352+242+520+314+218))</f>
         <v>0.35089960608964121</v>
       </c>
-      <c r="G14" s="5">
-        <f>(1644*0.0006+610*0.016)/(414+1749+352+645+1644+330+610)</f>
-        <v>1.8708913649025068E-3</v>
-      </c>
-      <c r="H14" s="5">
-        <f>(1644*0.0006+610*0.016)/(414+1749+352+645+1644+330+610)</f>
-        <v>1.8708913649025068E-3</v>
-      </c>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
       <c r="I14" s="8"/>
       <c r="L14" s="3" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A15" s="4" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
@@ -1084,64 +1035,67 @@
         <v>0.94823983899999997</v>
       </c>
       <c r="L15" s="3" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B16" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F16" t="s">
+        <v>26</v>
+      </c>
+      <c r="G16" t="s">
+        <v>24</v>
+      </c>
+      <c r="I16" t="s">
         <v>20</v>
       </c>
-      <c r="D16" t="s">
-        <v>19</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F16" t="s">
-        <v>32</v>
-      </c>
-      <c r="G16" t="s">
-        <v>30</v>
-      </c>
-      <c r="I16" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.45">
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>0</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C18" t="s">
+        <v>63</v>
+      </c>
+      <c r="D18" t="s">
         <v>1</v>
       </c>
-      <c r="C18" t="s">
+      <c r="E18" t="s">
         <v>2</v>
       </c>
-      <c r="D18" t="s">
-        <v>3</v>
-      </c>
-      <c r="E18" t="s">
-        <v>4</v>
-      </c>
       <c r="F18" t="s">
-        <v>5</v>
-      </c>
-      <c r="G18" t="s">
-        <v>23</v>
-      </c>
-      <c r="H18" t="s">
-        <v>24</v>
+        <v>60</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>62</v>
       </c>
       <c r="I18" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.45">
+        <v>64</v>
+      </c>
+      <c r="L18" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B19" s="1">
         <v>0.96671289900000001</v>
@@ -1168,10 +1122,13 @@
       <c r="I19" s="1">
         <v>0.95048081100000004</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="L19" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B20" s="1">
         <v>0.93830570899999999</v>
@@ -1198,10 +1155,13 @@
       <c r="I20" s="1">
         <v>0.93951698800000005</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="L20" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B21" s="1">
         <v>0.95704057300000001</v>
@@ -1228,10 +1188,13 @@
       <c r="I21" s="1">
         <v>0.92040997000000002</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="L21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B22" s="1">
         <v>0.94254446000000003</v>
@@ -1259,12 +1222,15 @@
         <v>0.92808936099999995</v>
       </c>
       <c r="K22" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.45">
+        <v>21</v>
+      </c>
+      <c r="L22" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B23" s="1">
         <v>0.94893473114000004</v>
@@ -1294,21 +1260,24 @@
         <v>0.59066173752310536</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.45">
+        <v>3</v>
+      </c>
+      <c r="L23" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C24" s="1">
         <v>0.88104089219330906</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="E24" s="1">
         <v>0.85553184999999998</v>
@@ -1325,19 +1294,22 @@
       <c r="I24" s="1">
         <v>0.94862529299999998</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="L24" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C25" s="1">
         <v>0.956590788777131</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="E25" s="1">
         <v>0.67505844299999995</v>
@@ -1354,19 +1326,22 @@
       <c r="I25" s="1">
         <v>0.95371872700000004</v>
       </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="L25" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C26" s="1">
         <v>0.88495575221238898</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="E26" s="1">
         <v>0.79079497899999995</v>
@@ -1383,19 +1358,22 @@
       <c r="I26" s="1">
         <v>0.92340230300000004</v>
       </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="L26" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C27" s="1">
         <v>0.89749999999999996</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="E27" s="1">
         <v>0.785287081</v>
@@ -1412,19 +1390,22 @@
       <c r="I27" s="1">
         <v>0.96882319699999997</v>
       </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="L27" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C28" s="1">
         <v>0.93760262725779997</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="E28" s="1">
         <v>0.39341359799999998</v>
@@ -1441,19 +1422,22 @@
       <c r="I28" s="1">
         <v>0.92122148500000001</v>
       </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="L28" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C29" s="1">
         <v>0.90147783251231495</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="E29" s="1">
         <v>0.838624339</v>
@@ -1470,19 +1454,22 @@
       <c r="I29" s="1">
         <v>0.95286986600000001</v>
       </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="L29" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C30" s="1">
         <v>0.96870109546165895</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="E30" s="1">
         <v>0.45026643</v>
@@ -1499,20 +1486,23 @@
       <c r="I30" s="1">
         <v>0.94480705399999998</v>
       </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="L30" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C31" s="1">
         <f>(474+1807+400+718+1713+366+619)/((64+82+52+82+114+40+20)+(474+1807+400+718+1713+366+619))</f>
         <v>0.93069760341932528</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="E31" s="1">
         <f>(2807+3754+1512+2626+1111+1902+507)/((474+1807+400+718+1713+366+619)+(2807+3754+1512+2626+1111+1902+507))</f>
@@ -1530,64 +1520,64 @@
         <v>3.9919771863117868</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.45">
+        <v>3</v>
+      </c>
+      <c r="L31" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C32" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D32" t="s">
-        <v>7</v>
-      </c>
-      <c r="E32" t="s">
-        <v>7</v>
-      </c>
-      <c r="F32" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G32" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H32" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="I32" s="1">
         <v>0.94933953800000004</v>
       </c>
+      <c r="L32" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B37" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E37" t="s">
+        <v>39</v>
+      </c>
+      <c r="F37" t="s">
+        <v>40</v>
+      </c>
+      <c r="G37" t="s">
+        <v>41</v>
+      </c>
+      <c r="H37" t="s">
+        <v>42</v>
+      </c>
+      <c r="I37" t="s">
         <v>43</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E37" t="s">
-        <v>45</v>
-      </c>
-      <c r="F37" t="s">
-        <v>46</v>
-      </c>
-      <c r="G37" t="s">
-        <v>47</v>
-      </c>
-      <c r="H37" t="s">
-        <v>48</v>
-      </c>
-      <c r="I37" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="39" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B39" s="1" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Paper/GunshotTPRresults.xlsx
+++ b/Data/Paper/GunshotTPRresults.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60EC31EB-57CE-44EF-A9A3-B8830B8BE9DD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E28B2642-4A83-473F-95A2-A4BF382BE0D5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="1433" windowWidth="13546" windowHeight="11579" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12780" yWindow="1365" windowWidth="14685" windowHeight="11475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -588,8 +588,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24:D31"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>

--- a/Data/Paper/GunshotTPRresults.xlsx
+++ b/Data/Paper/GunshotTPRresults.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E28B2642-4A83-473F-95A2-A4BF382BE0D5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA5A8488-F3B8-4388-926B-B5BDA8F4EA63}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12780" yWindow="1365" windowWidth="14685" windowHeight="11475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11130" yWindow="1950" windowWidth="14685" windowHeight="11475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="63">
   <si>
     <t>Mooring</t>
   </si>
@@ -109,118 +109,112 @@
     <t>using true</t>
   </si>
   <si>
+    <t>Explaination: accuracy stats from raven. Most data segments were machine assisted so there is an unknown extra # of FNs. Same calculation with or without A_C since comes before</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Explaination: Performance of the model to total TPR. For the machine assisted data, compares the # of GT TPs after model (and A_C for lower table) to # of FNs, and uses this metric to suggest the upper bound for TPR for these data. For hand GT data, calculates this as a factor such that ModelTPR equals total TPR / RavenTPR (the same metric for the hand GT data is interpreted as total TPR given that it includes all the FPs). </t>
+  </si>
+  <si>
+    <t>Explaination: Raven FPR is calculated as proportion of kept autodetections that are false positives pre model</t>
+  </si>
+  <si>
+    <t>Explaination: Total FPR is calculated as proportion of kept autodetections that are false positives after model (and A_C)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Explanation: % of total TPs that are redundant </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Explanation: % of total TPs that encompass more than 1 GT box </t>
+  </si>
+  <si>
+    <t>Explaination: AUC scores compare liklihood of correctly classifying TPs or FPs</t>
+  </si>
+  <si>
+    <t>runs for results: Full run relative with adaptive compare_20190422191447, Full run relative with adaptive compare_20190422180632, Full run relative with no adaptive compare_20190422192405,Full run true with no adaptive compare_20190422195919,Full run true with adaptive compare_20190422211623</t>
+  </si>
+  <si>
+    <t>AW15_AU_BS3</t>
+  </si>
+  <si>
+    <t>AW12_AU_BS3 1</t>
+  </si>
+  <si>
+    <t>AW12_AU_BS3 2</t>
+  </si>
+  <si>
+    <t>AW14_AU_BS3</t>
+  </si>
+  <si>
+    <t>BS12_AU_02a</t>
+  </si>
+  <si>
+    <t>BS13_AU_04</t>
+  </si>
+  <si>
+    <t>Data segment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hand boxed DS all </t>
+  </si>
+  <si>
+    <t>AW15_AU_BS2</t>
+  </si>
+  <si>
+    <t>BS14_AU_04</t>
+  </si>
+  <si>
+    <t>BS12_AU_02b</t>
+  </si>
+  <si>
+    <t>AL16_AU_BS3</t>
+  </si>
+  <si>
+    <t>Machine assisted GS all</t>
+  </si>
+  <si>
+    <t>MB %</t>
+  </si>
+  <si>
+    <t>Raven TPR</t>
+  </si>
+  <si>
+    <t>Total FPR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUC </t>
+  </si>
+  <si>
+    <t>OB %</t>
+  </si>
+  <si>
+    <t>RF TPR</t>
+  </si>
+  <si>
+    <t>AUC</t>
+  </si>
+  <si>
     <t>&lt;0.88</t>
   </si>
   <si>
+    <t>&lt;0.97</t>
+  </si>
+  <si>
+    <t>&lt;0.89</t>
+  </si>
+  <si>
+    <t>&lt;0.90</t>
+  </si>
+  <si>
     <t>&lt;0.96</t>
   </si>
   <si>
-    <t>&lt;0.89</t>
-  </si>
-  <si>
-    <t>&lt;0.90</t>
+    <t>&lt;0.91</t>
+  </si>
+  <si>
+    <t>&lt;0.99</t>
   </si>
   <si>
     <t>&lt;0.94</t>
-  </si>
-  <si>
-    <t>&lt;0.97</t>
-  </si>
-  <si>
-    <t>&lt;0.91</t>
-  </si>
-  <si>
-    <t>&lt;0.99</t>
-  </si>
-  <si>
-    <t>&lt;0.95</t>
-  </si>
-  <si>
-    <t>&lt;0.93</t>
-  </si>
-  <si>
-    <t>Explaination: accuracy stats from raven. Most data segments were machine assisted so there is an unknown extra # of FNs. Same calculation with or without A_C since comes before</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Explaination: Performance of the model to total TPR. For the machine assisted data, compares the # of GT TPs after model (and A_C for lower table) to # of FNs, and uses this metric to suggest the upper bound for TPR for these data. For hand GT data, calculates this as a factor such that ModelTPR equals total TPR / RavenTPR (the same metric for the hand GT data is interpreted as total TPR given that it includes all the FPs). </t>
-  </si>
-  <si>
-    <t>Explaination: Raven FPR is calculated as proportion of kept autodetections that are false positives pre model</t>
-  </si>
-  <si>
-    <t>Explaination: Total FPR is calculated as proportion of kept autodetections that are false positives after model (and A_C)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Explanation: % of total TPs that are redundant </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Explanation: % of total TPs that encompass more than 1 GT box </t>
-  </si>
-  <si>
-    <t>Explaination: AUC scores compare liklihood of correctly classifying TPs or FPs</t>
-  </si>
-  <si>
-    <t>runs for results: Full run relative with adaptive compare_20190422191447, Full run relative with adaptive compare_20190422180632, Full run relative with no adaptive compare_20190422192405,Full run true with no adaptive compare_20190422195919,Full run true with adaptive compare_20190422211623</t>
-  </si>
-  <si>
-    <t>AW15_AU_BS3</t>
-  </si>
-  <si>
-    <t>AW12_AU_BS3 1</t>
-  </si>
-  <si>
-    <t>AW12_AU_BS3 2</t>
-  </si>
-  <si>
-    <t>AW14_AU_BS3</t>
-  </si>
-  <si>
-    <t>BS12_AU_02a</t>
-  </si>
-  <si>
-    <t>BS13_AU_04</t>
-  </si>
-  <si>
-    <t>Data segment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hand boxed DS all </t>
-  </si>
-  <si>
-    <t>AW15_AU_BS2</t>
-  </si>
-  <si>
-    <t>BS14_AU_04</t>
-  </si>
-  <si>
-    <t>BS12_AU_02b</t>
-  </si>
-  <si>
-    <t>AL16_AU_BS3</t>
-  </si>
-  <si>
-    <t>Machine assisted GS all</t>
-  </si>
-  <si>
-    <t>MB %</t>
-  </si>
-  <si>
-    <t>Raven TPR</t>
-  </si>
-  <si>
-    <t>Total FPR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AUC </t>
-  </si>
-  <si>
-    <t>OB %</t>
-  </si>
-  <si>
-    <t>RF TPR</t>
-  </si>
-  <si>
-    <t>AUC</t>
   </si>
 </sst>
 </file>
@@ -249,7 +243,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -259,12 +253,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="1" tint="0.14999847407452621"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -281,10 +269,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -301,9 +288,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -588,8 +572,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -605,436 +589,437 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="C1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A2" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B2" s="5">
-        <v>0.96671289900000001</v>
-      </c>
-      <c r="C2" s="5">
+      <c r="A2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="4">
+        <v>0.96556671449067399</v>
+      </c>
+      <c r="C2" s="4">
         <f>D2/B2</f>
-        <v>0.96908602126762355</v>
-      </c>
-      <c r="D2" s="5">
-        <v>0.93682795699999999</v>
-      </c>
-      <c r="E2" s="5">
+        <v>0.96582466567607772</v>
+      </c>
+      <c r="D2" s="4">
+        <v>0.93256814921090403</v>
+      </c>
+      <c r="E2" s="4">
         <v>0.67445119099999995</v>
       </c>
-      <c r="F2" s="5">
+      <c r="F2" s="4">
         <v>0.34920634900000003</v>
       </c>
-      <c r="G2" s="6">
+      <c r="G2" s="5">
         <v>6.6666666670000003</v>
       </c>
-      <c r="H2" s="6">
+      <c r="H2" s="5">
         <v>0.43478260899999999</v>
       </c>
-      <c r="I2" s="5">
+      <c r="I2" s="4">
         <v>0.94814397399999994</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="L2" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A3" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B3" s="5">
-        <v>0.93830570899999999</v>
-      </c>
-      <c r="C3" s="5">
-        <f>D3/B3</f>
-        <v>0.97574124000134377</v>
-      </c>
-      <c r="D3" s="5">
-        <v>0.91554357600000003</v>
-      </c>
-      <c r="E3" s="5">
+      <c r="A3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" s="4">
+        <v>0.93424926398429797</v>
+      </c>
+      <c r="C3" s="4">
+        <f t="shared" ref="C3:C6" si="0">D3/B3</f>
+        <v>0.97268907563025198</v>
+      </c>
+      <c r="D3" s="4">
+        <v>0.90873405299313004</v>
+      </c>
+      <c r="E3" s="4">
         <v>0.675063776</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="4">
         <v>0.34637588200000002</v>
       </c>
-      <c r="G3" s="6">
+      <c r="G3" s="5">
         <v>10.60311284</v>
       </c>
-      <c r="H3" s="6">
+      <c r="H3" s="5">
         <v>0.48638132299999998</v>
       </c>
-      <c r="I3" s="5">
+      <c r="I3" s="4">
         <v>0.93747285400000002</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="L3" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A4" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B4" s="5">
-        <v>0.95704057300000001</v>
-      </c>
-      <c r="C4" s="5">
-        <f>D4/B4</f>
-        <v>0.99289099522847502</v>
-      </c>
-      <c r="D4" s="5">
-        <v>0.95023696700000004</v>
-      </c>
-      <c r="E4" s="5">
+      <c r="A4" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" s="4">
+        <v>0.95511221945137204</v>
+      </c>
+      <c r="C4" s="4">
+        <f t="shared" si="0"/>
+        <v>0.99477806788511725</v>
+      </c>
+      <c r="D4" s="4">
+        <v>0.95012468827930197</v>
+      </c>
+      <c r="E4" s="4">
         <v>0.408554572</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="4">
         <v>0.25602968500000001</v>
       </c>
-      <c r="G4" s="6">
+      <c r="G4" s="5">
         <v>19.32059448</v>
       </c>
-      <c r="H4" s="6">
+      <c r="H4" s="5">
         <v>0</v>
       </c>
-      <c r="I4" s="5">
+      <c r="I4" s="4">
         <v>0.90822524800000004</v>
       </c>
-      <c r="L4" s="3" t="s">
+      <c r="L4" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A5" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="B5" s="5">
-        <v>0.94254446000000003</v>
-      </c>
-      <c r="C5" s="5">
-        <f t="shared" ref="C5:C6" si="0">D5/B5</f>
-        <v>0.95430809385904192</v>
-      </c>
-      <c r="D5" s="5">
-        <v>0.89947780700000002</v>
-      </c>
-      <c r="E5" s="5">
+      <c r="A5" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" s="4">
+        <v>0.93904208998548599</v>
+      </c>
+      <c r="C5" s="4">
+        <f t="shared" si="0"/>
+        <v>0.94281298299845429</v>
+      </c>
+      <c r="D5" s="4">
+        <v>0.88534107402031903</v>
+      </c>
+      <c r="E5" s="4">
         <v>0.80531223500000004</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="4">
         <v>0.53851306099999996</v>
       </c>
-      <c r="G5" s="6">
+      <c r="G5" s="5">
         <v>19.14323963</v>
       </c>
-      <c r="H5" s="6">
+      <c r="H5" s="5">
         <v>0.93708166000000004</v>
       </c>
-      <c r="I5" s="5">
+      <c r="I5" s="4">
         <v>0.92651328600000005</v>
       </c>
-      <c r="L5" s="3" t="s">
+      <c r="L5" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A6" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="B6" s="5">
-        <v>0.94893473114000004</v>
-      </c>
-      <c r="C6" s="5">
+      <c r="A6" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" s="4">
+        <f>(697+1019+401+689-24-67-18-42)/(697+1019+401+689)</f>
+        <v>0.94618674269422665</v>
+      </c>
+      <c r="C6" s="4">
         <f t="shared" si="0"/>
-        <v>0.97110016421019485</v>
-      </c>
-      <c r="D6" s="7">
-        <f>(697+1019+401+689)/((697+1019+401+689)+(47+94+21+77))</f>
-        <v>0.92151067323481117</v>
-      </c>
-      <c r="E6" s="5">
-        <f>(1444+2117+277+2850)/((697+1019+401+689)+(1444+2117+277+2850))</f>
-        <v>0.70444491257636399</v>
-      </c>
-      <c r="F6" s="5">
-        <f>(374+550+138+804)/((697+1019+401+689)+(374+550+138+804))</f>
-        <v>0.39940068493150682</v>
-      </c>
-      <c r="G6" s="5">
+        <v>0.96685499058380409</v>
+      </c>
+      <c r="D6" s="6">
+        <f>(697+1019+401+689-47-93-20-79)/(697+1019+401+689)</f>
+        <v>0.9148253741981468</v>
+      </c>
+      <c r="E6" s="4">
+        <f>(1444+2117+277+2850)/((725+1070+481+810)+(1444+2117+277+2850))</f>
+        <v>0.68426437487210967</v>
+      </c>
+      <c r="F6" s="4">
+        <f>(374+540+138+804)/((693+1032+471+747)+(374+540+138+804))</f>
+        <v>0.38674723900812669</v>
+      </c>
+      <c r="G6" s="4">
         <f>(690*0.0667+1028*0.106+471*0.1932+747*0.1914)/(690+1028+471+747)*100</f>
         <v>13.24809264305177</v>
       </c>
-      <c r="H6" s="5">
+      <c r="H6" s="4">
         <f>(690*0.0043+1028*0.0049+471*0+747*0.0094)/(690+1028+471+747)*100</f>
         <v>0.51178474114441419</v>
       </c>
-      <c r="I6" s="8"/>
-      <c r="L6" s="3" t="s">
+      <c r="I6" s="7"/>
+      <c r="L6" s="2" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A7" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="5">
-        <v>0.88930581600000003</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E7" s="5">
+      <c r="A7" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" s="7"/>
+      <c r="C7" s="4">
+        <v>0.879746835443038</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E7" s="4">
         <v>0.85553184999999998</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F7" s="4">
         <v>0.42684401500000002</v>
       </c>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="5">
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="4">
         <v>0.94847640799999999</v>
       </c>
       <c r="K7" t="s">
         <v>19</v>
       </c>
-      <c r="L7" s="3" t="s">
+      <c r="L7" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" s="7"/>
+      <c r="C8" s="4">
+        <v>0.96790260099612602</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E8" s="4">
+        <v>0.67505844299999995</v>
+      </c>
+      <c r="F8" s="4">
+        <v>0.41784793799999997</v>
+      </c>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="4">
+        <v>0.95203552599999997</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A9" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="7"/>
+      <c r="C9" s="4">
+        <v>0.89249999999999996</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E9" s="4">
+        <v>0.79079497899999995</v>
+      </c>
+      <c r="F9" s="4">
+        <v>0.46808510599999997</v>
+      </c>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="4">
+        <v>0.92092453699999999</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A10" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" s="7"/>
+      <c r="C10" s="4">
+        <v>0.90111420612813398</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E10" s="4">
+        <v>0.785287081</v>
+      </c>
+      <c r="F10" s="4">
+        <v>0.25208333300000002</v>
+      </c>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="4">
+        <v>0.968428819</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A11" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11" s="7"/>
+      <c r="C11" s="4">
+        <v>0.96205487448920002</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E11" s="4">
+        <v>0.39341359799999998</v>
+      </c>
+      <c r="F11" s="4">
+        <v>0.23287057799999999</v>
+      </c>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="4">
+        <v>0.91793083900000005</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A12" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="5">
-        <v>0.96994095499999999</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E8" s="5">
-        <v>0.67505844299999995</v>
-      </c>
-      <c r="F8" s="5">
-        <v>0.41784793799999997</v>
-      </c>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="5">
-        <v>0.95203552599999997</v>
-      </c>
-      <c r="L8" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A9" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="5">
-        <v>0.89686098700000005</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E9" s="5">
-        <v>0.79079497899999995</v>
-      </c>
-      <c r="F9" s="5">
-        <v>0.46808510599999997</v>
-      </c>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="5">
-        <v>0.92092453699999999</v>
-      </c>
-      <c r="L9" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A10" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B10" s="8"/>
-      <c r="C10" s="5">
-        <v>0.90886075899999996</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E10" s="5">
-        <v>0.785287081</v>
-      </c>
-      <c r="F10" s="5">
-        <v>0.25208333300000002</v>
-      </c>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="5">
-        <v>0.968428819</v>
-      </c>
-      <c r="L10" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A11" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="B11" s="8"/>
-      <c r="C11" s="5">
-        <v>0.96235955100000004</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E11" s="5">
-        <v>0.39341359799999998</v>
-      </c>
-      <c r="F11" s="5">
-        <v>0.23287057799999999</v>
-      </c>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="5">
-        <v>0.91793083900000005</v>
-      </c>
-      <c r="L11" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A12" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="B12" s="8"/>
-      <c r="C12" s="5">
-        <v>0.91271820400000003</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E12" s="5">
+      <c r="B12" s="7"/>
+      <c r="C12" s="4">
+        <v>0.90710382513661203</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E12" s="4">
         <v>0.838624339</v>
       </c>
-      <c r="F12" s="5">
+      <c r="F12" s="4">
         <v>0.46176470600000002</v>
       </c>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="5">
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="4">
         <v>0.95303437700000004</v>
       </c>
-      <c r="L12" s="3" t="s">
+      <c r="L12" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" s="7"/>
+      <c r="C13" s="4">
+        <v>0.98546042003231005</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E13" s="4">
+        <v>0.45026643</v>
+      </c>
+      <c r="F13" s="4">
+        <v>0.26045400200000002</v>
+      </c>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="4">
+        <v>0.941747573</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A14" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B13" s="8"/>
-      <c r="C13" s="5">
-        <v>0.98566878999999996</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="E13" s="5">
-        <v>0.45026643</v>
-      </c>
-      <c r="F13" s="5">
-        <v>0.26045400200000002</v>
-      </c>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="5">
-        <v>0.941747573</v>
-      </c>
-      <c r="L13" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A14" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="B14" s="8"/>
-      <c r="C14" s="5">
-        <f>(474+1807+400+718+1713+366+619)/((474+1807+400+718+1713+366+619)+(59+56+46+72+67+35+9))</f>
-        <v>0.94659214407700665</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="E14" s="5">
+      <c r="B14" s="7"/>
+      <c r="C14" s="4">
+        <f>(474+1807+400+718+1713+366+619-57-58-43-71-65-34-9)/(474+1807+400+718+1713+366+619)</f>
+        <v>0.94472691487616856</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E14" s="4">
         <f>(2807+3754+1512+2626+1111+1902+507)/((474+1807+400+718+1713+366+619)+(2807+3754+1512+2626+1111+1902+507))</f>
         <v>0.69989171096672576</v>
       </c>
-      <c r="F14" s="5">
-        <f>(353+1297+352+242+520+314+218)/((474+1807+400+718+1713+366+619)+(353+1297+352+242+520+314+218))</f>
-        <v>0.35089960608964121</v>
-      </c>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="L14" s="3" t="s">
+      <c r="F14" s="4">
+        <f>(353+1297+352+242+520+314+218)/((415+1751+354+646+1646+331+610)+(353+1297+352+242+520+314+218))</f>
+        <v>0.36423914244667921</v>
+      </c>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="L14" s="2" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="9">
-        <v>0.7</v>
-      </c>
-      <c r="F15">
-        <v>0.37099225591662399</v>
-      </c>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="5">
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="4">
+        <v>0.701341832</v>
+      </c>
+      <c r="F15" s="4">
+        <v>0.366559943</v>
+      </c>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="4">
         <v>0.94823983899999997</v>
       </c>
-      <c r="L15" s="3" t="s">
+      <c r="L15" s="2" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1066,10 +1051,10 @@
         <v>0</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="C18" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="D18" t="s">
         <v>1</v>
@@ -1078,16 +1063,16 @@
         <v>2</v>
       </c>
       <c r="F18" t="s">
-        <v>60</v>
-      </c>
-      <c r="G18" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="H18" s="4" t="s">
-        <v>62</v>
+        <v>50</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>52</v>
       </c>
       <c r="I18" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="L18" t="s">
         <v>0</v>
@@ -1097,17 +1082,17 @@
       <c r="A19" t="s">
         <v>8</v>
       </c>
-      <c r="B19" s="1">
-        <v>0.96671289900000001</v>
+      <c r="B19" s="4">
+        <v>0.96556671449067399</v>
       </c>
       <c r="C19" s="1">
         <f>D19/B19</f>
-        <v>0.97039030930664338</v>
+        <v>0.96285289747399683</v>
       </c>
       <c r="D19" s="1">
-        <v>0.93808882907133195</v>
-      </c>
-      <c r="E19" s="1">
+        <v>0.92969870875179295</v>
+      </c>
+      <c r="E19" s="4">
         <v>0.67445119099999995</v>
       </c>
       <c r="F19" s="1">
@@ -1130,17 +1115,17 @@
       <c r="A20" t="s">
         <v>9</v>
       </c>
-      <c r="B20" s="1">
-        <v>0.93830570899999999</v>
+      <c r="B20" s="4">
+        <v>0.93424926398429797</v>
       </c>
       <c r="C20" s="1">
-        <f>D20/B20</f>
-        <v>0.97749774979991833</v>
+        <f t="shared" ref="C20:C23" si="1">D20/B20</f>
+        <v>0.97163865546218475</v>
       </c>
       <c r="D20" s="1">
-        <v>0.917191719171917</v>
-      </c>
-      <c r="E20" s="1">
+        <v>0.90775269872423903</v>
+      </c>
+      <c r="E20" s="4">
         <v>0.675063776</v>
       </c>
       <c r="F20" s="1">
@@ -1163,17 +1148,17 @@
       <c r="A21" t="s">
         <v>10</v>
       </c>
-      <c r="B21" s="1">
-        <v>0.95704057300000001</v>
+      <c r="B21" s="4">
+        <v>0.95511221945137204</v>
       </c>
       <c r="C21" s="1">
-        <f>D21/B21</f>
-        <v>0.99289099504524869</v>
+        <f t="shared" si="1"/>
+        <v>0.99216710182767587</v>
       </c>
       <c r="D21" s="1">
-        <v>0.95023696682464498</v>
-      </c>
-      <c r="E21" s="1">
+        <v>0.94763092269326699</v>
+      </c>
+      <c r="E21" s="4">
         <v>0.408554572</v>
       </c>
       <c r="F21" s="1">
@@ -1196,17 +1181,17 @@
       <c r="A22" t="s">
         <v>14</v>
       </c>
-      <c r="B22" s="1">
-        <v>0.94254446000000003</v>
+      <c r="B22" s="4">
+        <v>0.93904208998548599</v>
       </c>
       <c r="C22" s="1">
-        <f>D22/B22</f>
-        <v>0.95430809363466196</v>
+        <f t="shared" si="1"/>
+        <v>0.94435857805255086</v>
       </c>
       <c r="D22" s="1">
-        <v>0.89947780678851197</v>
-      </c>
-      <c r="E22" s="1">
+        <v>0.88679245283018904</v>
+      </c>
+      <c r="E22" s="4">
         <v>0.80531223500000004</v>
       </c>
       <c r="F22" s="1">
@@ -1232,20 +1217,21 @@
       <c r="A23" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="1">
-        <v>0.94893473114000004</v>
+      <c r="B23" s="4">
+        <f>(697+1019+401+689-24-67-18-42)/(697+1019+401+689)</f>
+        <v>0.94618674269422665</v>
       </c>
       <c r="C23" s="1">
-        <f t="shared" ref="C23" si="1">D23/B23</f>
-        <v>0.97205785667983013</v>
-      </c>
-      <c r="D23" s="2">
-        <f>(697+1019+401+689)/((697+1019+401+689)+(46+92+21+77))</f>
-        <v>0.92241946088099935</v>
-      </c>
-      <c r="E23" s="1">
-        <f>(1444+2117+277+2850)/((697+1019+401+689)+(1444+2117+277+2850))</f>
-        <v>0.70444491257636399</v>
+        <f t="shared" si="1"/>
+        <v>0.96572504708097928</v>
+      </c>
+      <c r="D23" s="6">
+        <f>(697+1019+401+689-49-94-21-78)/(697+1019+401+689)</f>
+        <v>0.91375623663578043</v>
+      </c>
+      <c r="E23" s="4">
+        <f>(1444+2117+277+2850)/((725+1070+481+810)+(1444+2117+277+2850))</f>
+        <v>0.68426437487210967</v>
       </c>
       <c r="F23" s="1">
         <f>(364+531+129+776)/((697+1019+401+689)+(364+531+129+776))</f>
@@ -1273,12 +1259,8 @@
       <c r="B24" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C24" s="1">
-        <v>0.88104089219330906</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>27</v>
-      </c>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
       <c r="E24" s="1">
         <v>0.85553184999999998</v>
       </c>
@@ -1305,12 +1287,8 @@
       <c r="B25" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C25" s="1">
-        <v>0.956590788777131</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>28</v>
-      </c>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
       <c r="E25" s="1">
         <v>0.67505844299999995</v>
       </c>
@@ -1337,12 +1315,8 @@
       <c r="B26" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C26" s="1">
-        <v>0.88495575221238898</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>27</v>
-      </c>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
       <c r="E26" s="1">
         <v>0.79079497899999995</v>
       </c>
@@ -1369,12 +1343,8 @@
       <c r="B27" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C27" s="1">
-        <v>0.89749999999999996</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>30</v>
-      </c>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
       <c r="E27" s="1">
         <v>0.785287081</v>
       </c>
@@ -1401,12 +1371,8 @@
       <c r="B28" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C28" s="1">
-        <v>0.93760262725779997</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>31</v>
-      </c>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
       <c r="E28" s="1">
         <v>0.39341359799999998</v>
       </c>
@@ -1433,12 +1399,8 @@
       <c r="B29" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C29" s="1">
-        <v>0.90147783251231495</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>30</v>
-      </c>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
       <c r="E29" s="1">
         <v>0.838624339</v>
       </c>
@@ -1465,12 +1427,8 @@
       <c r="B30" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C30" s="1">
-        <v>0.96870109546165895</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>32</v>
-      </c>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
       <c r="E30" s="1">
         <v>0.45026643</v>
       </c>
@@ -1497,13 +1455,8 @@
       <c r="B31" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C31" s="1">
-        <f>(474+1807+400+718+1713+366+619)/((64+82+52+82+114+40+20)+(474+1807+400+718+1713+366+619))</f>
-        <v>0.93069760341932528</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>36</v>
-      </c>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
       <c r="E31" s="1">
         <f>(2807+3754+1512+2626+1111+1902+507)/((474+1807+400+718+1713+366+619)+(2807+3754+1512+2626+1111+1902+507))</f>
         <v>0.69989171096672576</v>
@@ -1554,30 +1507,30 @@
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B37" s="1" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="E37" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="F37" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G37" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="H37" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="I37" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
     </row>
     <row r="39" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B39" s="1" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
